--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H2">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J2">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.378315666666666</v>
+        <v>7.695620666666667</v>
       </c>
       <c r="N2">
-        <v>13.134947</v>
+        <v>23.086862</v>
       </c>
       <c r="O2">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="P2">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
       <c r="Q2">
-        <v>6.871435146281222</v>
+        <v>28.16565098913889</v>
       </c>
       <c r="R2">
-        <v>61.842916316531</v>
+        <v>253.49085890225</v>
       </c>
       <c r="S2">
-        <v>0.1057568143680493</v>
+        <v>0.2379558373296498</v>
       </c>
       <c r="T2">
-        <v>0.1057568143680493</v>
+        <v>0.2379558373296498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H3">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J3">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.62227</v>
       </c>
       <c r="O3">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="P3">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="Q3">
-        <v>5.556949671078889</v>
+        <v>12.95902186847222</v>
       </c>
       <c r="R3">
-        <v>50.01254703971</v>
+        <v>116.63119681625</v>
       </c>
       <c r="S3">
-        <v>0.08552584464614127</v>
+        <v>0.1094835301649752</v>
       </c>
       <c r="T3">
-        <v>0.08552584464614126</v>
+        <v>0.1094835301649752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H4">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J4">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.478768666666667</v>
+        <v>3.610968333333334</v>
       </c>
       <c r="N4">
-        <v>10.436306</v>
+        <v>10.832905</v>
       </c>
       <c r="O4">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="P4">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="Q4">
-        <v>5.459664195504223</v>
+        <v>13.21599364298611</v>
       </c>
       <c r="R4">
-        <v>49.136977759538</v>
+        <v>118.943942786875</v>
       </c>
       <c r="S4">
-        <v>0.08402854433521198</v>
+        <v>0.1116545410107078</v>
       </c>
       <c r="T4">
-        <v>0.08402854433521197</v>
+        <v>0.1116545410107077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.569424333333333</v>
+        <v>3.659958333333333</v>
       </c>
       <c r="H5">
-        <v>4.708273</v>
+        <v>10.979875</v>
       </c>
       <c r="I5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744068</v>
       </c>
       <c r="J5">
-        <v>0.2941318537634731</v>
+        <v>0.4781132044744067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.779172</v>
+        <v>0.6150943333333334</v>
       </c>
       <c r="N5">
-        <v>2.337516</v>
+        <v>1.845283</v>
       </c>
       <c r="O5">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="P5">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
       <c r="Q5">
-        <v>1.222851496652</v>
+        <v>2.251219631069445</v>
       </c>
       <c r="R5">
-        <v>11.005663469868</v>
+        <v>20.260976679625</v>
       </c>
       <c r="S5">
-        <v>0.01882065041407058</v>
+        <v>0.01901929596907402</v>
       </c>
       <c r="T5">
-        <v>0.01882065041407058</v>
+        <v>0.01901929596907402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J6">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.378315666666666</v>
+        <v>7.695620666666667</v>
       </c>
       <c r="N6">
-        <v>13.134947</v>
+        <v>23.086862</v>
       </c>
       <c r="O6">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="P6">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
       <c r="Q6">
-        <v>10.702775133904</v>
+        <v>18.811913937184</v>
       </c>
       <c r="R6">
-        <v>96.324976205136</v>
+        <v>169.307225434656</v>
       </c>
       <c r="S6">
-        <v>0.1647241629969879</v>
+        <v>0.1589313428055364</v>
       </c>
       <c r="T6">
-        <v>0.1647241629969879</v>
+        <v>0.1589313428055364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J7">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.62227</v>
       </c>
       <c r="O7">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="P7">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="Q7">
         <v>8.655365508640001</v>
@@ -883,10 +883,10 @@
         <v>77.89828957776</v>
       </c>
       <c r="S7">
-        <v>0.1332129116986932</v>
+        <v>0.07312434382563404</v>
       </c>
       <c r="T7">
-        <v>0.1332129116986931</v>
+        <v>0.07312434382563404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.333488</v>
       </c>
       <c r="I8">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J8">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.478768666666667</v>
+        <v>3.610968333333334</v>
       </c>
       <c r="N8">
-        <v>10.436306</v>
+        <v>10.832905</v>
       </c>
       <c r="O8">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="P8">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="Q8">
-        <v>8.503836090592001</v>
+        <v>8.826997646960001</v>
       </c>
       <c r="R8">
-        <v>76.534524815328</v>
+        <v>79.44297882264</v>
       </c>
       <c r="S8">
-        <v>0.1308807542680182</v>
+        <v>0.0745743677999552</v>
       </c>
       <c r="T8">
-        <v>0.1308807542680182</v>
+        <v>0.0745743677999552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.333488</v>
       </c>
       <c r="I9">
-        <v>0.4581324022613356</v>
+        <v>0.3193330932870009</v>
       </c>
       <c r="J9">
-        <v>0.4581324022613355</v>
+        <v>0.3193330932870008</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.779172</v>
+        <v>0.6150943333333334</v>
       </c>
       <c r="N9">
-        <v>2.337516</v>
+        <v>1.845283</v>
       </c>
       <c r="O9">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="P9">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
       <c r="Q9">
-        <v>1.904682837312</v>
+        <v>1.503595637456</v>
       </c>
       <c r="R9">
-        <v>17.142145535808</v>
+        <v>13.532360737104</v>
       </c>
       <c r="S9">
-        <v>0.02931457329763624</v>
+        <v>0.0127030388558752</v>
       </c>
       <c r="T9">
-        <v>0.02931457329763623</v>
+        <v>0.0127030388558752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H10">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J10">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.378315666666666</v>
+        <v>7.695620666666667</v>
       </c>
       <c r="N10">
-        <v>13.134947</v>
+        <v>23.086862</v>
       </c>
       <c r="O10">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="P10">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
       <c r="Q10">
-        <v>5.063656336847111</v>
+        <v>10.68223974326222</v>
       </c>
       <c r="R10">
-        <v>45.572907031624</v>
+        <v>96.14015768936</v>
       </c>
       <c r="S10">
-        <v>0.07793367059999898</v>
+        <v>0.09024827097531748</v>
       </c>
       <c r="T10">
-        <v>0.07793367059999896</v>
+        <v>0.0902482709753175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H11">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J11">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.62227</v>
       </c>
       <c r="O11">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="P11">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="Q11">
-        <v>4.094993668204444</v>
+        <v>4.914900723955555</v>
       </c>
       <c r="R11">
-        <v>36.85494301384</v>
+        <v>44.2341065156</v>
       </c>
       <c r="S11">
-        <v>0.06302518702239537</v>
+        <v>0.04152324821506646</v>
       </c>
       <c r="T11">
-        <v>0.06302518702239537</v>
+        <v>0.04152324821506646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H12">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J12">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.478768666666667</v>
+        <v>3.610968333333334</v>
       </c>
       <c r="N12">
-        <v>10.436306</v>
+        <v>10.832905</v>
       </c>
       <c r="O12">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="P12">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="Q12">
-        <v>4.023302645239111</v>
+        <v>5.012361070377778</v>
       </c>
       <c r="R12">
-        <v>36.209723807152</v>
+        <v>45.1112496334</v>
       </c>
       <c r="S12">
-        <v>0.0619218055531395</v>
+        <v>0.04234663619030909</v>
       </c>
       <c r="T12">
-        <v>0.06192180555313949</v>
+        <v>0.04234663619030909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.156530666666667</v>
+        <v>1.388093333333333</v>
       </c>
       <c r="H13">
-        <v>3.469592</v>
+        <v>4.16428</v>
       </c>
       <c r="I13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="J13">
-        <v>0.2167498627974453</v>
+        <v>0.1813315046964271</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.779172</v>
+        <v>0.6150943333333334</v>
       </c>
       <c r="N13">
-        <v>2.337516</v>
+        <v>1.845283</v>
       </c>
       <c r="O13">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="P13">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
       <c r="Q13">
-        <v>0.9011363126079999</v>
+        <v>0.8538083434711111</v>
       </c>
       <c r="R13">
-        <v>8.110226813472</v>
+        <v>7.684275091240001</v>
       </c>
       <c r="S13">
-        <v>0.01386919962191147</v>
+        <v>0.007213349315734066</v>
       </c>
       <c r="T13">
-        <v>0.01386919962191147</v>
+        <v>0.007213349315734066</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H14">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J14">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4.378315666666666</v>
+        <v>7.695620666666667</v>
       </c>
       <c r="N14">
-        <v>13.134947</v>
+        <v>23.086862</v>
       </c>
       <c r="O14">
-        <v>0.3595558013009157</v>
+        <v>0.4976976897997125</v>
       </c>
       <c r="P14">
-        <v>0.3595558013009156</v>
+        <v>0.4976976897997126</v>
       </c>
       <c r="Q14">
-        <v>0.7238844424326667</v>
+        <v>1.250199751024</v>
       </c>
       <c r="R14">
-        <v>6.514959981894001</v>
+        <v>11.251797759216</v>
       </c>
       <c r="S14">
-        <v>0.01114115333587946</v>
+        <v>0.01056223868920883</v>
       </c>
       <c r="T14">
-        <v>0.01114115333587946</v>
+        <v>0.01056223868920883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H15">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J15">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.62227</v>
       </c>
       <c r="O15">
-        <v>0.2907738266081072</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="P15">
-        <v>0.2907738266081071</v>
+        <v>0.228990810419744</v>
       </c>
       <c r="Q15">
-        <v>0.5854074627266667</v>
+        <v>0.5752171650400001</v>
       </c>
       <c r="R15">
-        <v>5.268667164540001</v>
+        <v>5.17695448536</v>
       </c>
       <c r="S15">
-        <v>0.00900988324087736</v>
+        <v>0.004859688214068342</v>
       </c>
       <c r="T15">
-        <v>0.009009883240877356</v>
+        <v>0.004859688214068342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H16">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J16">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.478768666666667</v>
+        <v>3.610968333333334</v>
       </c>
       <c r="N16">
-        <v>10.436306</v>
+        <v>10.832905</v>
       </c>
       <c r="O16">
-        <v>0.2856832514399605</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="P16">
-        <v>0.2856832514399604</v>
+        <v>0.2335315987213747</v>
       </c>
       <c r="Q16">
-        <v>0.5751587387346667</v>
+        <v>0.5866234715600001</v>
       </c>
       <c r="R16">
-        <v>5.176428648612001</v>
+        <v>5.279611244040001</v>
       </c>
       <c r="S16">
-        <v>0.008852147283590781</v>
+        <v>0.004956053720402702</v>
       </c>
       <c r="T16">
-        <v>0.008852147283590779</v>
+        <v>0.004956053720402702</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.165334</v>
+        <v>0.162456</v>
       </c>
       <c r="H17">
-        <v>0.4960020000000001</v>
+        <v>0.487368</v>
       </c>
       <c r="I17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216535</v>
       </c>
       <c r="J17">
-        <v>0.03098588117774611</v>
+        <v>0.02122219754216534</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.779172</v>
+        <v>0.6150943333333334</v>
       </c>
       <c r="N17">
-        <v>2.337516</v>
+        <v>1.845283</v>
       </c>
       <c r="O17">
-        <v>0.0639871206510168</v>
+        <v>0.03977990105916876</v>
       </c>
       <c r="P17">
-        <v>0.06398712065101679</v>
+        <v>0.03977990105916877</v>
       </c>
       <c r="Q17">
-        <v>0.128823623448</v>
+        <v>0.09992576501600002</v>
       </c>
       <c r="R17">
-        <v>1.159412611032</v>
+        <v>0.8993318851440002</v>
       </c>
       <c r="S17">
-        <v>0.001982697317398511</v>
+        <v>0.0008442169184854719</v>
       </c>
       <c r="T17">
-        <v>0.001982697317398511</v>
+        <v>0.0008442169184854719</v>
       </c>
     </row>
   </sheetData>
